--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6778,4 +6779,3100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6734</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2669</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1740</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0387</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0279</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9298</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9286</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6937</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5362</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9875,4 +9876,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9884,7 +9885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9895,17 +9896,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9915,14 +9936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60.01</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9931,14 +9974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.4</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9947,13 +10012,5113 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1783</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7635</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2978</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2751</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2489</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1990</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1526</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0943</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0398</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8808</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8670</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6650</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>82</v>
       </c>
       <c r="D4" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
         <v>29.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15033,7 +15034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15044,17 +15045,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15064,14 +15085,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.86</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15080,14 +15123,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.01</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15096,14 +15161,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.4</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -15112,13 +15199,2887 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0626</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7929</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7762</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6767</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>82</v>
       </c>
       <c r="D5" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
         <v>29.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17978,7 +17979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17989,17 +17990,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18009,14 +18030,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.92</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -18025,14 +18068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>134</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85.86</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18041,14 +18106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.01</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -18057,14 +18144,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.4</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -18073,13 +18182,3585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9478</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0787</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8981</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7889</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3647</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3647</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>157.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9904</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>134</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>82</v>
       </c>
       <c r="D6" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82</v>
+      </c>
+      <c r="D7" t="n">
         <v>29.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>59.06</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>61.92</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>85.86</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D5" t="n">
-        <v>60.01</v>
+        <v>85.86</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>28.4</v>
+        <v>60.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>82</v>
       </c>
       <c r="D7" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+      <c r="D8" t="n">
         <v>29.66</v>
       </c>
     </row>
@@ -583,6 +600,3974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8721</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6855</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015769</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015770</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4246,7 +8231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7190,7 +11175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12338,7 +16323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15434,7 +19419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18604,7 +22589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601058-赛轮轮胎.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D2" t="n">
-        <v>43.67</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>59.06</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>61.92</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>85.86</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D6" t="n">
-        <v>60.01</v>
+        <v>85.86</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4</v>
+        <v>60.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>82</v>
       </c>
       <c r="D8" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" t="n">
         <v>29.66</v>
       </c>
     </row>
@@ -600,6 +617,4958 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8458</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4567,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8231,7 +13200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11175,7 +16144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16323,7 +21292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19419,7 +24388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22589,7 +27558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
